--- a/spreadsheet/sap_checklist.es.xlsx
+++ b/spreadsheet/sap_checklist.es.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisión de la zona de aterrizaje de Azure</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>No combine ASCS y clúster de base de datos en una sola máquina virtual o la misma</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1120,17 +1120,17 @@
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Aplicar la propogación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
+          <t>Asegúrese de que la IP flotante esté habilitada en el equilibrador de carga</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1166,17 +1166,17 @@
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
-      <c r="H9" s="16" t="n"/>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Implemente el inicio de sesión único (SSO) con Azure Active Directory o los Servicios de federación de Active Directory (AD FS) para que los usuarios finales puedan conectarse a las aplicaciones SAP siempre que sea posible.</t>
+          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de bases de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1212,17 +1212,17 @@
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="H10" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I10" s="16" t="n"/>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,17 +1233,17 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Si SuccessFactor se usa como aplicación HCM, aproveche la característica de aprovisionamiento automatizado de usuarios en Azure AD.</t>
+          <t>Utilice un grupo de ubicación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1260,19 +1260,15 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I11" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I11" s="16" t="n"/>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1283,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Las aplicaciones web basadas en SSO a SAP Netweaver como Fiori, webgui, etc. se pueden implementar utilizando SAML</t>
+          <t>Actualmente, Azure no admite la combinación de ASCS y db HA en el mismo clúster de Linux Pacemaker; Separarlos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales múltiples en un par de máquinas virtuales.</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1310,19 +1306,15 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I12" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1333,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>SSO a SAP GUI se puede implementar utilizando SAP SSO o una solución de 3ª parte</t>
+          <t>Usar una SKU de equilibrador de carga estándar delante de clústeres ASCS y DB</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1360,19 +1352,15 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
-        </is>
-      </c>
-      <c r="I13" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3686af46-791f-4893-9ada-43324e138115</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1383,17 +1371,17 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Las aplicaciones de SSO a SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS y SAP C4C con Azure AD se pueden implementar mediante SAML</t>
+          <t>Ambas máquinas virtuales del par de alta disponibilidad deben implementarse en un conjunto de disponibilidad o las zonas de disponibilidad deben tener el mismo tamaño y la misma configuración de almacenamiento.</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1410,19 +1398,15 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
-        </is>
-      </c>
-      <c r="I14" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+        </is>
+      </c>
+      <c r="I14" s="16" t="n"/>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1433,17 +1417,17 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>La tecnología de replicación de base de datos nativa se debe utilizar para sincronizar la base de datos en un par de alta disponibilidad.</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1460,19 +1444,15 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
-        </is>
-      </c>
-      <c r="I15" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="n"/>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1483,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Realice una recuperación puntual para sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación puntual generalmente incluye errores del operador al eliminar datos en la capa DBMS o a través de SAP, por cierto.</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1510,19 +1490,15 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I16" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="n"/>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1533,17 +1509,17 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>aplicar las directivas existentes del grupo de administración a las suscripciones de SAP</t>
+          <t>El CIDR para la red virtual principal (VNet) no debe entrar en conflicto ni superponerse con el CIDR de la red virtual del sitio de recuperación ante desastres</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1558,21 +1534,13 @@
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
-        </is>
-      </c>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1583,17 +1551,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>acople las aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
+          <t>Utilice Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Cuando invoque DR, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de DR (por ejemplo, reemplazar VIP o SBD, ejecutar corosync.conf y más).</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1608,21 +1576,13 @@
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
-      <c r="H18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1633,17 +1593,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveche la suscripción como unidad de escala y amplíe nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, non-prod, prod </t>
+          <t>La replicación de base de datos nativa se debe usar para sincronizar los datos con el sitio de recuperación ante desastres, en lugar de Azure Site Recovery</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1658,21 +1618,13 @@
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
-      <c r="H19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1683,17 +1635,17 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de aumentar la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de vm disponibles dentro de una suscripción).</t>
+          <t>Realizar solicitudes de cuota para SKU y zonas de VM correctas</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1708,21 +1660,13 @@
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
-      <c r="H20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1733,23 +1677,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
+          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1758,21 +1702,17 @@
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
-      <c r="H21" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
+      <c r="H21" s="16" t="n"/>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1783,17 +1723,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recursos de Azure para la categorización de costos y la agrupación de recursos (: BillTo, Departamento (o unidad de negocio), Entorno (Producción, Etapa, Desarrollo), Nivel (nivel web, Nivel de aplicación), Propietario de la aplicación, ProjectName)</t>
+          <t>Aplicación de la propuesta de principios para reenviar la identidad desde la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1808,17 +1748,17 @@
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
-      <c r="H22" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1829,23 +1769,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Implemente el inicio de sesión único (SSO) mediante Azure Active Directory o los Servicios de federación de Active Directory (AD FS) para que los usuarios finales se conecten a las aplicaciones SAP siempre que sea posible.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1854,17 +1794,17 @@
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
-      <c r="H23" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1875,17 +1815,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Si se usa SuccessFactor como aplicación HCM, aproveche la característica de aprovisionamiento automatizado de usuarios en Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1902,15 +1842,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="16" t="n"/>
+          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1921,17 +1865,17 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>No se recomienda la asignación de I.P pública a máquinas virtuales que ejecuten SAP Workload.</t>
+          <t>Las aplicaciones web basadas en SSO a SAP Netweaver como Fiori, webgui, etc. se pueden implementar mediante SAML</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1948,19 +1892,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1971,23 +1915,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Considere reservar la dirección IP en el lado DR al configurar ASR</t>
+          <t>SSO a SAP GUI se puede implementar utilizando SAP SSO o una solución de 3rd party</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1998,19 +1942,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>3686af46-791f-4893-9ada-43324e138115</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2021,17 +1965,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Evite el uso de rangos de direcciones IP superpuestos para sitios de producción y recuperación ante desastres.</t>
+          <t>Las aplicaciones de SSO a SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS y SAP C4C con Azure AD se pueden implementar mediante SAML</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2048,19 +1992,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2071,17 +2015,17 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que Accelarated Networking esté habilitado para todas las máquinas virtuales donde sea aplicable.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2098,19 +2042,19 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2121,17 +2065,17 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>El emparejamiento de redes virtuales locales y globales proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre zonas de aterrizaje para implementaciones de SAP en varias regiones de Azure</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2148,19 +2092,19 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2171,17 +2115,17 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Use un firewall de aplicaciones web para escanear su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con su equilibrador de carga o con recursos que tengan capacidades de firewall integradas como Application Gateway o soluciones de terceros.</t>
+          <t>aplicar directivas de grupo de administración existentes a suscripciones de SAP</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2198,19 +2142,19 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2221,17 +2165,17 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer estén configuradas para usar direct server return (DSR) para la configuración de alta disponibilidad en la capa DBMS</t>
+          <t>Permitir que las aplicaciones estén estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2246,12 +2190,21 @@
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
-      <c r="H31" s="16" t="n"/>
+      <c r="H31" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2262,17 +2215,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Usar Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t xml:space="preserve">Aproveche la suscripción como unidad de escala y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no prod, prod </t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2289,19 +2242,19 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2312,17 +2265,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Utilice SAP Web Dispatcher o un servicio de terceros como NetScaler en conjunción con Application Gateway si es necesario para superar la limitación de proxy inverso para SAP web Apps.</t>
+          <t>Garantice el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de VM disponibles dentro de una suscripción).</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2339,19 +2292,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2362,17 +2315,17 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use las directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Asegúrese de que los servicios y características requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, zona, etc.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2389,19 +2342,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2412,17 +2365,17 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Aproveche la etiqueta de recursos de Azure para la categorización de costos y la agrupación de recursos (BillTo, Departamento (o unidad de negocio), Entorno (producción, etapa, desarrollo), Nivel (nivel web, nivel de aplicación), propietario de la aplicación, nombre del proyecto)</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2439,19 +2392,15 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I35" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I35" s="16" t="n"/>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2462,17 +2411,17 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Para una entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2489,19 +2438,15 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I36" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="16" t="n"/>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2512,17 +2457,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Si Azure NetApp Files se usa para la implementación de SAP, asegúrese de que solo pueda existir una subred delegada en una red virtual para Azure NetAppFiles</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2539,19 +2484,15 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I37" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I37" s="16" t="n"/>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2562,17 +2503,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la capa de aplicación de SAP, como la subred de aplicaciones, la subred de base de datos y la subred web, etc.</t>
+          <t>Usar SAP Solution Manager y Azure Monitor for SAP Solutions para supervisar SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2587,21 +2528,13 @@
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="16" t="n"/>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2612,17 +2545,17 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>No se admite la implementación de ningún NVA entre la aplicación SAP y el servidor de base de datos SAP</t>
+          <t>Ejecute una extensión de máquina virtual para la comprobación de SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual para acceder a los datos de configuración y supervisión de VM.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2639,19 +2572,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2662,34 +2595,46 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>No se admite la colocación de la capa de aplicación de SAP y SAP DBMS en diferentes redes virtuales de Azure que no están emparejadas</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
-      <c r="E40" s="22" t="n"/>
+      <c r="E40" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
-      <c r="H40" s="16" t="n"/>
-      <c r="I40" s="16" t="n"/>
+      <c r="H40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2700,34 +2645,46 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de ubicación de proximidad de Azure.</t>
+          <t>Proteja su base de datos de HANA con el servicio Copia de seguridad de Azure. Si implementa Azure NetApp Files (ANF) para la base de datos de HANA, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
-      <c r="E41" s="22" t="n"/>
+      <c r="E41" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
-      <c r="H41" s="16" t="n"/>
-      <c r="I41" s="16" t="n"/>
+      <c r="H41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2738,7 +2695,7 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
@@ -2748,7 +2705,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use SAP Solution Manager y Azure Monitor for SAP Solutions para supervisar SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL</t>
+          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2763,13 +2720,21 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2780,7 +2745,7 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
@@ -2790,7 +2755,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Ejecute una extensión de máquina virtual para la comprobación de SAP. VM Extension for SAP utiliza la identidad administrada asignada de una máquina virtual para acceder a los datos de supervisión y configuración de VM.</t>
+          <t>Use el Monitor de conexión de Network Watcher para supervisar las métricas de latencia de la base de datos SAP y del servidor de aplicaciones, o para recopilar y mostrar mediciones de latencia de red con Azure Monitor.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2807,19 +2772,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2830,7 +2795,7 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
@@ -2840,7 +2805,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2857,19 +2822,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2880,7 +2845,7 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
@@ -2890,7 +2855,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Proteja su base de datos de HANA con el servicio Copia de seguridad de Azure. Si implementa Azure NetApp Files (ANF) para la base de datos hana, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación</t>
+          <t>Para cada suscripción de Azure, ejecute una prueba de latencia de la zona de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2907,19 +2872,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2930,7 +2890,7 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
@@ -2940,7 +2900,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
+          <t>Implemente protección contra amenazas para SAP con Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2957,19 +2917,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2980,7 +2936,7 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
@@ -2990,7 +2946,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Use network Watcher Connection Monitor para supervisar las métricas de latencia de la base de datos SAP y del servidor de aplicaciones, o recopile y muestre mediciones de latencia de red con Azure Monitor.</t>
+          <t>La aplicación de la configuración de la administración de actualizaciones a través de la directiva garantiza que todas las máquinas virtuales estén incluidas en el régimen de administración de parches, proporciona a los equipos de aplicaciones la capacidad de administrar la implementación de parches para sus máquinas virtuales y proporciona a TI central capacidades de visibilidad y aplicación en todas las máquinas virtuales.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3007,19 +2963,15 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I47" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="n"/>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3030,7 +2982,7 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
@@ -3040,7 +2992,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
+          <t>Habilite VM Insights para las cargas de trabajo de SAP que ejecutan máquinas virtuales.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3057,19 +3009,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3080,7 +3027,7 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
@@ -3090,7 +3037,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Para cada suscripción de Azure, ejecute una prueba de latencia de la zona de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para SAP en la implementación de Azure.</t>
+          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento de los recursos de forma lógica, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3107,14 +3054,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3125,7 +3072,7 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
@@ -3135,7 +3082,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Implemente la protección contra amenazas para SAP con Microsoft Sentinel.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3152,7 +3099,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3160,7 +3107,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3171,17 +3118,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>La aplicación de la configuración de la administración de actualizaciones a través de directivas garantiza que todas las máquinas virtuales se incluyan en el régimen de administración de revisiones, proporciona a los equipos de aplicaciones la capacidad de administrar la implementación de revisiones para sus máquinas virtuales y proporciona a la TI central capacidades de visibilidad y aplicación en todas las máquinas virtuales.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, utilice Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3198,15 +3145,19 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3217,17 +3168,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Habilite VM Insights para máquinas virtuales que ejecutan cargas de trabajo de SAP.</t>
+          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3244,15 +3195,19 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3263,17 +3218,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad sobre los costos incurridos.</t>
+          <t>No se recomienda la asignación de IP pública a la máquina virtual que ejecuta SAP Workload.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3290,14 +3245,19 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3308,17 +3268,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Considere reservar la dirección IP en el lado DR al configurar ASR</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3335,15 +3295,19 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I54" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I54" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3354,23 +3318,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3381,14 +3345,19 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3399,17 +3368,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Se recomienda BLOQUEAR los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados</t>
+          <t>Asegúrese de que Accelarated Networking esté habilitado para todas las máquinas virtuales donde corresponda.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3426,14 +3395,19 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3444,17 +3418,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga por software habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3471,14 +3445,19 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3489,17 +3468,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, los controles normativos y de cumplimiento (internos/externos): determine qué directivas de Azure y el rol RBAC de Azure son necesarios</t>
+          <t>Utilice SAP Web Dispatcher o un servicio de terceros como NetScaler junto con Application Gateway si es necesario para superar la limitación de proxy inverso para SAP Web Apps.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3516,14 +3495,19 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3534,17 +3518,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Cuando habilite Microsoft Defender for Cloud Standard para SAP, asegúrese de excluir los servidores de bases de datos SAP de cualquier directiva que instale endpoint protection.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3561,14 +3545,19 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3579,17 +3568,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Delegue un rol personalizado de administrador de SAP con acceso justo a tiempo.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3606,14 +3595,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3624,17 +3618,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>cifrar datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan capacidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3651,14 +3645,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3669,17 +3668,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) con SAML 2.0 también puede proporcionar SSO a una amplia gama de aplicaciones y plataformas de SAP como SAP NetWeaver, SAP HANA y SAP Cloud Platform</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer estén configuradas para usar Direct Server Return (DSR) para la configuración de alta disponibilidad en la capa de DBMS</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3694,16 +3693,12 @@
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
-      <c r="H62" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H62" s="16" t="n"/>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3714,17 +3709,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de reforzar el sistema operativo para erradicar las vulnerabilidades que podrían provocar ataques a la base de datos SAP.</t>
+          <t>Si se usa Azure NetApp Files para la implementación de SAP, asegúrese de que solo puede existir una subred delegada en una red virtual para Azure NetAppFiles</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3741,15 +3736,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3760,17 +3759,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, las claves administradas por Microsoft para la funcionalidad de cifrado principal y usar claves administradas por el cliente cuando sea necesario.</t>
+          <t>Utilice NSG y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la capa de aplicación de SAP, como subred de aplicaciones, subred de base de datos y subred web, etc.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3787,15 +3786,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3806,17 +3809,17 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación, por entorno y por región.</t>
+          <t>No se admite la implementación de ningún NVA entre la aplicación SAP y el servidor de base de datos SAP</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3833,15 +3836,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I65" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3852,17 +3859,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>No se admite la colocación de la capa de aplicación SAP y SAP DBMS en diferentes redes virtuales de Azure que no están emparejadas</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3877,16 +3884,12 @@
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
-      <c r="H66" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H66" s="16" t="n"/>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3897,23 +3900,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Personalice los roles de control de acceso basado en roles (RBAC) para sap en suscripciones radiales de Azure para evitar cambios accidentales relacionados con la red</t>
+          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de ubicación de proximidad de Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3922,17 +3925,13 @@
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
-      <c r="H67" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H67" s="16" t="n"/>
       <c r="I67" s="16" t="n"/>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3953,13 +3952,13 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Aísle las DMZ y las NVA del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>Personalización de roles de control de acceso basado en roles (RBAC) para SAP en suscripciones radiales de Azure para evitar cambios accidentales relacionados con la red</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,7 +3977,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3999,7 +3998,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Para el cifrado del servidor de base de datos SAP, utilice la tecnología de cifrado nativa SAP HANA. Si usa Base de datos SQL de Azure, use cifrado de datos transparente (TDE) ofrecido por el proveedor de DBMS para proteger los datos y los archivos de registro, y asegúrese de que las copias de seguridad también estén cifradas.</t>
+          <t>Aísle las DMZ y NVA del resto del estado de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4024,7 +4023,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4045,7 +4044,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>El cifrado de Almacenamiento de Azure está habilitado de forma predeterminada</t>
+          <t>Para el cifrado del servidor de base de datos SAP, utilice la tecnología de cifrado nativa de SAP HANA. Si usa Base de datos SQL de Azure, use el cifrado de datos transparente (TDE) ofrecido por el proveedor de DBMS para proteger los datos y los archivos de registro, y asegúrese de que las copias de seguridad también estén cifradas.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4070,7 +4069,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4091,7 +4090,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>El cifrado de Azure Storage está habilitado de forma predeterminada</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4116,7 +4115,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4162,7 +4161,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4173,17 +4172,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C73" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C73" s="22" t="inlineStr">
-        <is>
-          <t>No combine ASCS y clúster de base de datos en una sola o misma máquina virtual</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4200,7 +4199,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4208,7 +4207,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4219,23 +4218,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que la IP flotante esté habilitada en el equilibrador de carga</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4246,7 +4245,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4254,7 +4253,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4265,17 +4264,17 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de bases de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
+          <t>Se recomienda BLOQUEAR la implementación posterior a la implementación correcta de Azure Resources para protegerse contra cambios no autorizados.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4292,7 +4291,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4300,7 +4299,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4311,17 +4310,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Utilice un grupo de colocación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4338,7 +4337,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4346,7 +4345,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4357,17 +4356,17 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure no admite actualmente la combinación de ASCS y db HA en el mismo clúster de Linux Pacemaker; separarlos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
+          <t>En función de los requisitos existentes, los controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y rol RBAC de Azure son necesarios</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4384,7 +4383,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4392,7 +4391,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4403,17 +4402,17 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Usar una SKU de equilibrador de carga estándar delante de clústeres ASCS y DB</t>
+          <t>Cuando habilite Microsoft Defender para Cloud Standard para SAP, asegúrese de excluir los servidores de bases de datos SAP de cualquier directiva que instale la protección de extremos.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4430,7 +4429,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4438,7 +4437,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4449,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Ambas máquinas virtuales del par de alta disponibilidad deben implementarse en un conjunto de disponibilidad, o las zonas de disponibilidad deben tener el mismo tamaño y la misma configuración de almacenamiento</t>
+          <t>Delegue un rol personalizado de administrador de SAP con acceso justo a tiempo.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4476,7 +4475,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4484,7 +4483,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4495,17 +4494,17 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Se debe utilizar la tecnología de replicación de bases de datos nativas para sincronizar la base de datos en un par de alta disponibilidad.</t>
+          <t>cifrar datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4522,7 +4521,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4530,7 +4529,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4541,17 +4540,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Realice una recuperación puntual para sus bases de datos de producción en cualquier momento y en un marco de tiempo que cumpla con su RTO; La recuperación puntual generalmente incluye errores del operador que eliminan datos en la capa DBMS o a través de SAP, incidentalmente</t>
+          <t>Azure Active Directory (Azure AD) con SAML 2.0 también puede proporcionar SSO a una amplia gama de aplicaciones y plataformas de SAP, como SAP NetWeaver, SAP HANA y SAP Cloud Platform</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4568,7 +4567,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4576,7 +4575,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4587,34 +4586,42 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>El CIDR para la red virtual principal (red virtual) no debe entrar en conflicto ni superponerse con el CIDR de la red virtual del sitio de recuperación ante desastres</t>
+          <t>Asegúrese de reforzar el sistema operativo para erradicar las vulnerabilidades que podrían conducir a ataques a la base de datos SAP.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
-      <c r="E82" s="22" t="n"/>
+      <c r="E82" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
-      <c r="H82" s="16" t="n"/>
+      <c r="H82" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4625,34 +4632,42 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Utilice Site Recovery para replicar un servidor de aplicaciones en un sitio de RECUPERACIÓN ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de RECUPERACIÓN ante desastres. Cuando invoque DR, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de DR (por ejemplo, reemplace vip o SBD, ejecute corosync.conf y más).</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
-      <c r="E83" s="22" t="n"/>
+      <c r="E83" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
-      <c r="H83" s="16" t="n"/>
+      <c r="H83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4663,34 +4678,42 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>La replicación nativa de la base de datos se debe usar para sincronizar los datos con el sitio de recuperación ante desastres, en lugar de Azure Site Recovery</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
-      <c r="E84" s="22" t="n"/>
+      <c r="E84" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
-      <c r="H84" s="16" t="n"/>
+      <c r="H84" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4701,34 +4724,42 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C85" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
         </is>
       </c>
-      <c r="C85" s="22" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
       <c r="D85" s="22" t="n"/>
-      <c r="E85" s="22" t="n"/>
+      <c r="E85" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
-      <c r="H85" s="16" t="n"/>
+      <c r="H85" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf6-5de8e1309ccc</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4753,7 +4784,11 @@
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
-      <c r="E86" s="22" t="n"/>
+      <c r="E86" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4777,34 +4812,46 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Checlistas</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>No verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>c4919cb1-b3d1-4325-ae12-4ba34df685ed</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4815,34 +4862,46 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAVIA </t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>No verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>dce9bd3b-b0cd-4b3b-95eb-2ec14eeaa359</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4853,38 +4912,46 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Realizar solicitudes de cuota para SKU y zonas de VM correctas</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>No verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4905,7 +4972,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4927,14 +4994,14 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4955,7 +5022,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4977,14 +5044,14 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5005,7 +5072,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5027,14 +5094,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5055,7 +5122,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5072,7 +5139,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5084,7 +5151,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5105,7 +5172,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5122,7 +5189,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5134,7 +5201,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5155,7 +5222,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5177,14 +5244,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5205,7 +5272,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5222,19 +5289,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5250,12 +5317,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5272,19 +5339,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5305,7 +5372,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5322,7 +5389,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5334,7 +5401,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5355,7 +5422,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5372,19 +5439,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5405,7 +5472,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5422,19 +5489,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5455,7 +5522,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5477,14 +5544,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5505,7 +5572,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5534,7 +5601,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5555,7 +5622,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5572,7 +5639,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5584,7 +5651,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5605,7 +5672,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5622,7 +5689,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5634,7 +5701,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5655,13 +5722,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5672,19 +5739,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5700,18 +5767,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5722,19 +5789,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5750,12 +5817,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5772,19 +5839,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5800,12 +5867,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5822,19 +5889,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5855,7 +5922,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5872,7 +5939,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -5884,7 +5951,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5905,7 +5972,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5922,7 +5989,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -5934,7 +6001,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5955,7 +6022,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5977,14 +6044,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6005,7 +6072,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6027,14 +6094,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6055,7 +6122,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6077,14 +6144,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6100,12 +6167,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6125,12 +6192,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6151,7 +6222,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6168,19 +6239,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6201,7 +6267,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6218,7 +6284,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6230,7 +6296,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6246,12 +6312,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6268,19 +6334,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6301,7 +6367,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6318,15 +6384,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6347,7 +6417,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6364,14 +6434,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6392,7 +6462,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6409,7 +6479,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6417,7 +6487,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6428,17 +6498,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6455,19 +6525,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6488,7 +6554,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6503,13 +6569,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6530,7 +6604,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6545,21 +6619,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6580,7 +6646,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6609,7 +6675,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6630,7 +6696,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6647,19 +6713,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6680,7 +6746,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6697,19 +6763,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6730,7 +6796,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6747,19 +6813,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6780,7 +6846,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6797,19 +6863,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6830,7 +6896,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6847,14 +6913,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6875,13 +6946,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6892,14 +6963,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6920,7 +6991,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6937,14 +7008,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6965,7 +7036,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -6982,14 +7053,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7010,7 +7081,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7027,14 +7098,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7055,7 +7126,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7072,14 +7143,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7100,7 +7171,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7117,14 +7188,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7145,7 +7216,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7162,14 +7233,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7190,7 +7261,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7207,14 +7278,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7235,7 +7306,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7252,14 +7323,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7280,7 +7351,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7297,14 +7368,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7315,23 +7386,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7342,14 +7413,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7360,17 +7431,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7387,14 +7458,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7415,13 +7486,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7432,14 +7503,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7460,7 +7531,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7477,14 +7548,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7505,7 +7576,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7529,7 +7600,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7550,7 +7621,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7574,7 +7645,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7595,7 +7666,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7619,7 +7690,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7640,7 +7711,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7657,14 +7728,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7685,7 +7756,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7709,7 +7780,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7730,7 +7801,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7747,14 +7818,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7775,7 +7846,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7799,7 +7870,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7820,7 +7891,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -7837,14 +7908,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7860,18 +7931,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7882,14 +7953,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7905,12 +7976,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7927,14 +7998,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7955,13 +8026,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7979,7 +8050,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8000,7 +8071,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8017,14 +8088,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8045,7 +8116,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8069,7 +8140,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8090,13 +8161,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8114,7 +8185,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8135,7 +8206,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8159,7 +8230,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8180,13 +8251,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8204,7 +8275,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8225,7 +8296,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8249,7 +8320,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8270,7 +8341,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8294,7 +8365,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8315,7 +8386,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8339,7 +8410,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8355,12 +8426,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8377,14 +8448,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8400,12 +8471,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8422,14 +8493,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8450,7 +8521,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8467,14 +8538,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8495,7 +8566,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8512,14 +8583,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8540,7 +8611,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8557,14 +8628,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8585,7 +8656,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8602,14 +8673,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8630,7 +8701,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8647,14 +8718,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8675,7 +8746,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8699,7 +8770,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8720,7 +8791,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8737,14 +8808,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8753,360 +8824,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10664,7 +11455,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10748,7 +11539,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10804,14 +11595,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F90" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F87" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11003,7 +11824,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">

--- a/spreadsheet/sap_checklist.es.xlsx
+++ b/spreadsheet/sap_checklist.es.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisión de la zona de aterrizaje de Azure</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>No combine ASCS y clúster de base de datos en una sola máquina virtual o la misma</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1120,17 +1120,17 @@
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Aplicar la propogación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
+          <t>Asegúrese de que la IP flotante esté habilitada en el equilibrador de carga</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1166,17 +1166,17 @@
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
-      <c r="H9" s="16" t="n"/>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Implemente el inicio de sesión único (SSO) con Azure Active Directory o los Servicios de federación de Active Directory (AD FS) para que los usuarios finales puedan conectarse a las aplicaciones SAP siempre que sea posible.</t>
+          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de bases de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1212,17 +1212,17 @@
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="H10" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I10" s="16" t="n"/>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,17 +1233,17 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Si SuccessFactor se usa como aplicación HCM, aproveche la característica de aprovisionamiento automatizado de usuarios en Azure AD.</t>
+          <t>Utilice un grupo de ubicación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1260,19 +1260,15 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I11" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I11" s="16" t="n"/>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1283,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Las aplicaciones web basadas en SSO a SAP Netweaver como Fiori, webgui, etc. se pueden implementar utilizando SAML</t>
+          <t>Actualmente, Azure no admite la combinación de ASCS y db HA en el mismo clúster de Linux Pacemaker; Separarlos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales múltiples en un par de máquinas virtuales.</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1310,19 +1306,15 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I12" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1333,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>SSO a SAP GUI se puede implementar utilizando SAP SSO o una solución de 3ª parte</t>
+          <t>Usar una SKU de equilibrador de carga estándar delante de clústeres ASCS y DB</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1360,19 +1352,15 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
-        </is>
-      </c>
-      <c r="I13" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3686af46-791f-4893-9ada-43324e138115</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1383,17 +1371,17 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Las aplicaciones de SSO a SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS y SAP C4C con Azure AD se pueden implementar mediante SAML</t>
+          <t>Ambas máquinas virtuales del par de alta disponibilidad deben implementarse en un conjunto de disponibilidad o las zonas de disponibilidad deben tener el mismo tamaño y la misma configuración de almacenamiento.</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1410,19 +1398,15 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
-        </is>
-      </c>
-      <c r="I14" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+        </is>
+      </c>
+      <c r="I14" s="16" t="n"/>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1433,17 +1417,17 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>La tecnología de replicación de base de datos nativa se debe utilizar para sincronizar la base de datos en un par de alta disponibilidad.</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1460,19 +1444,15 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
-        </is>
-      </c>
-      <c r="I15" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="n"/>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1483,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Realice una recuperación puntual para sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación puntual generalmente incluye errores del operador al eliminar datos en la capa DBMS o a través de SAP, por cierto.</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1510,19 +1490,15 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I16" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="n"/>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1533,17 +1509,17 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>aplicar las directivas existentes del grupo de administración a las suscripciones de SAP</t>
+          <t>El CIDR para la red virtual principal (VNet) no debe entrar en conflicto ni superponerse con el CIDR de la red virtual del sitio de recuperación ante desastres</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1558,21 +1534,13 @@
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
-        </is>
-      </c>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1583,17 +1551,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>acople las aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
+          <t>Utilice Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Cuando invoque DR, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de DR (por ejemplo, reemplazar VIP o SBD, ejecutar corosync.conf y más).</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1608,21 +1576,13 @@
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
-      <c r="H18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1633,17 +1593,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveche la suscripción como unidad de escala y amplíe nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, non-prod, prod </t>
+          <t>La replicación de base de datos nativa se debe usar para sincronizar los datos con el sitio de recuperación ante desastres, en lugar de Azure Site Recovery</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1658,21 +1618,13 @@
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
-      <c r="H19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1683,17 +1635,17 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de aumentar la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de vm disponibles dentro de una suscripción).</t>
+          <t>Realizar solicitudes de cuota para SKU y zonas de VM correctas</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1708,21 +1660,13 @@
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
-      <c r="H20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1733,23 +1677,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
+          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1758,21 +1702,17 @@
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
-      <c r="H21" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
+      <c r="H21" s="16" t="n"/>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1783,17 +1723,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recursos de Azure para la categorización de costos y la agrupación de recursos (: BillTo, Departamento (o unidad de negocio), Entorno (Producción, Etapa, Desarrollo), Nivel (nivel web, Nivel de aplicación), Propietario de la aplicación, ProjectName)</t>
+          <t>Aplicar la propagación del principio para reenviar la identidad desde la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector de nube</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1808,17 +1748,17 @@
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
-      <c r="H22" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1829,23 +1769,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Implemente el inicio de sesión único (SSO) mediante Azure Active Directory o los Servicios de federación de Active Directory (AD FS) para que los usuarios finales se conecten a las aplicaciones SAP siempre que sea posible.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1854,17 +1794,17 @@
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
-      <c r="H23" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1875,17 +1815,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Si se usa SuccessFactor como aplicación HCM, aproveche la característica de aprovisionamiento automatizado de usuarios en Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1902,15 +1842,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="16" t="n"/>
+          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1921,17 +1865,17 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>No se recomienda la asignación de I.P pública a máquinas virtuales que ejecuten SAP Workload.</t>
+          <t>Las aplicaciones web basadas en SSO a SAP Netweaver como Fiori, webgui, etc. se pueden implementar mediante SAML</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1948,19 +1892,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1971,23 +1915,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Considere reservar la dirección IP en el lado DR al configurar ASR</t>
+          <t>SSO a SAP GUI se puede implementar utilizando SAP SSO o una solución de 3rd party</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1998,19 +1942,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>3686af46-791f-4893-9ada-43324e138115</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2021,17 +1965,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Evite el uso de rangos de direcciones IP superpuestos para sitios de producción y recuperación ante desastres.</t>
+          <t>Las aplicaciones de SSO a SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS y SAP C4C con Azure AD se pueden implementar mediante SAML</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2048,19 +1992,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2071,17 +2015,17 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que Accelarated Networking esté habilitado para todas las máquinas virtuales donde sea aplicable.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2098,19 +2042,19 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2121,17 +2065,17 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>El emparejamiento de redes virtuales locales y globales proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre zonas de aterrizaje para implementaciones de SAP en varias regiones de Azure</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2148,19 +2092,19 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2171,17 +2115,17 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Use un firewall de aplicaciones web para escanear su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con su equilibrador de carga o con recursos que tengan capacidades de firewall integradas como Application Gateway o soluciones de terceros.</t>
+          <t>aplicar directivas de grupo de administración existentes a suscripciones de SAP</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2198,19 +2142,19 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2221,17 +2165,17 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer estén configuradas para usar direct server return (DSR) para la configuración de alta disponibilidad en la capa DBMS</t>
+          <t>Permitir que las aplicaciones estén estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2246,12 +2190,21 @@
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
-      <c r="H31" s="16" t="n"/>
+      <c r="H31" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2262,17 +2215,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Usar Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t xml:space="preserve">Aproveche la suscripción como unidad de escala y escalando nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no prod, prod </t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2289,19 +2242,19 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2312,17 +2265,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Utilice SAP Web Dispatcher o un servicio de terceros como NetScaler en conjunción con Application Gateway si es necesario para superar la limitación de proxy inverso para SAP web Apps.</t>
+          <t>Garantice el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de VM disponibles dentro de una suscripción).</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2339,19 +2292,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2362,17 +2315,17 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use las directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Asegúrese de que los servicios y características requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, zona, etc.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2389,19 +2342,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2412,17 +2365,17 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Aproveche la etiqueta de recursos de Azure para la categorización de costos y la agrupación de recursos (BillTo, Departamento (o unidad de negocio), Entorno (producción, etapa, desarrollo), Nivel (nivel web, nivel de aplicación), propietario de la aplicación, nombre del proyecto)</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2439,19 +2392,15 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I35" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I35" s="16" t="n"/>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2462,17 +2411,17 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Para una entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2489,19 +2438,15 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I36" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="16" t="n"/>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2512,17 +2457,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Si Azure NetApp Files se usa para la implementación de SAP, asegúrese de que solo pueda existir una subred delegada en una red virtual para Azure NetAppFiles</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2539,19 +2484,15 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I37" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I37" s="16" t="n"/>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2562,17 +2503,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la capa de aplicación de SAP, como la subred de aplicaciones, la subred de base de datos y la subred web, etc.</t>
+          <t>Usar SAP Solution Manager y Azure Monitor for SAP Solutions para supervisar SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2587,21 +2528,13 @@
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="16" t="n"/>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2612,17 +2545,17 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>No se admite la implementación de ningún NVA entre la aplicación SAP y el servidor de base de datos SAP</t>
+          <t>Ejecute una extensión de máquina virtual para la comprobación de SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual para acceder a los datos de configuración y supervisión de VM.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2639,19 +2572,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2662,34 +2595,46 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>No se admite la colocación de la capa de aplicación de SAP y SAP DBMS en diferentes redes virtuales de Azure que no están emparejadas</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
-      <c r="E40" s="22" t="n"/>
+      <c r="E40" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
-      <c r="H40" s="16" t="n"/>
-      <c r="I40" s="16" t="n"/>
+      <c r="H40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2700,34 +2645,46 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de ubicación de proximidad de Azure.</t>
+          <t>Proteja su base de datos de HANA con el servicio Copia de seguridad de Azure. Si implementa Azure NetApp Files (ANF) para la base de datos de HANA, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
-      <c r="E41" s="22" t="n"/>
+      <c r="E41" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
-      <c r="H41" s="16" t="n"/>
-      <c r="I41" s="16" t="n"/>
+      <c r="H41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2738,7 +2695,7 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
@@ -2748,7 +2705,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use SAP Solution Manager y Azure Monitor for SAP Solutions para supervisar SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL</t>
+          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2763,13 +2720,21 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2780,7 +2745,7 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
@@ -2790,7 +2755,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Ejecute una extensión de máquina virtual para la comprobación de SAP. VM Extension for SAP utiliza la identidad administrada asignada de una máquina virtual para acceder a los datos de supervisión y configuración de VM.</t>
+          <t>Use el Monitor de conexión de Network Watcher para supervisar las métricas de latencia de la base de datos SAP y del servidor de aplicaciones, o para recopilar y mostrar mediciones de latencia de red con Azure Monitor.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2807,19 +2772,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2830,7 +2795,7 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
@@ -2840,7 +2805,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2857,19 +2822,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2880,7 +2845,7 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
@@ -2890,7 +2855,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Proteja su base de datos de HANA con el servicio Copia de seguridad de Azure. Si implementa Azure NetApp Files (ANF) para la base de datos hana, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación</t>
+          <t>Para cada suscripción de Azure, ejecute una prueba de latencia de la zona de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2907,19 +2872,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2930,7 +2890,7 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
@@ -2940,7 +2900,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
+          <t>Implemente protección contra amenazas para SAP con Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2957,19 +2917,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2980,7 +2936,7 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
@@ -2990,7 +2946,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Use network Watcher Connection Monitor para supervisar las métricas de latencia de la base de datos SAP y del servidor de aplicaciones, o recopile y muestre mediciones de latencia de red con Azure Monitor.</t>
+          <t>La aplicación de la configuración de la administración de actualizaciones a través de la directiva garantiza que todas las máquinas virtuales estén incluidas en el régimen de administración de parches, proporciona a los equipos de aplicaciones la capacidad de administrar la implementación de parches para sus máquinas virtuales y proporciona a TI central capacidades de visibilidad y aplicación en todas las máquinas virtuales.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3007,19 +2963,15 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I47" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="n"/>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3030,7 +2982,7 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
@@ -3040,7 +2992,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
+          <t>Habilite VM Insights para las cargas de trabajo de SAP que ejecutan máquinas virtuales.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3057,19 +3009,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3080,7 +3027,7 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
@@ -3090,7 +3037,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Para cada suscripción de Azure, ejecute una prueba de latencia de la zona de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para SAP en la implementación de Azure.</t>
+          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento de los recursos de forma lógica, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3107,14 +3054,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3125,7 +3072,7 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
@@ -3135,7 +3082,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Implemente la protección contra amenazas para SAP con Microsoft Sentinel.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3152,7 +3099,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3160,7 +3107,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3171,17 +3118,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>La aplicación de la configuración de la administración de actualizaciones a través de directivas garantiza que todas las máquinas virtuales se incluyan en el régimen de administración de revisiones, proporciona a los equipos de aplicaciones la capacidad de administrar la implementación de revisiones para sus máquinas virtuales y proporciona a la TI central capacidades de visibilidad y aplicación en todas las máquinas virtuales.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, utilice Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3198,15 +3145,19 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3217,17 +3168,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Habilite VM Insights para máquinas virtuales que ejecutan cargas de trabajo de SAP.</t>
+          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3244,15 +3195,19 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3263,17 +3218,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad sobre los costos incurridos.</t>
+          <t>No se recomienda la asignación de IP pública a la máquina virtual que ejecuta SAP Workload.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3290,14 +3245,19 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3308,17 +3268,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Considere reservar la dirección IP en el lado DR al configurar ASR</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3335,15 +3295,19 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I54" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I54" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3354,23 +3318,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3381,14 +3345,19 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3399,17 +3368,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Se recomienda BLOQUEAR los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados</t>
+          <t>Asegúrese de que la red acelerada esté habilitada para todas las máquinas virtuales donde corresponda.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3426,14 +3395,19 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3444,17 +3418,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga por software habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3471,14 +3445,19 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3489,17 +3468,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, los controles normativos y de cumplimiento (internos/externos): determine qué directivas de Azure y el rol RBAC de Azure son necesarios</t>
+          <t>Utilice SAP Web Dispatcher o un servicio de terceros como NetScaler junto con Application Gateway si es necesario para superar la limitación de proxy inverso para SAP Web Apps.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3516,14 +3495,19 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3534,17 +3518,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Cuando habilite Microsoft Defender for Cloud Standard para SAP, asegúrese de excluir los servidores de bases de datos SAP de cualquier directiva que instale endpoint protection.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3561,14 +3545,19 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3579,17 +3568,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Delegue un rol personalizado de administrador de SAP con acceso justo a tiempo.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3606,14 +3595,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3624,17 +3618,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>cifrar datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan capacidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3651,14 +3645,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3669,17 +3668,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) con SAML 2.0 también puede proporcionar SSO a una amplia gama de aplicaciones y plataformas de SAP como SAP NetWeaver, SAP HANA y SAP Cloud Platform</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer estén configuradas para usar Direct Server Return (DSR) para la configuración de alta disponibilidad en la capa de DBMS</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3694,16 +3693,12 @@
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
-      <c r="H62" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H62" s="16" t="n"/>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3714,17 +3709,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de reforzar el sistema operativo para erradicar las vulnerabilidades que podrían provocar ataques a la base de datos SAP.</t>
+          <t>Si se usa Azure NetApp Files para la implementación de SAP, asegúrese de que solo puede existir una subred delegada en una red virtual para Azure NetAppFiles</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3741,15 +3736,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3760,17 +3759,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, las claves administradas por Microsoft para la funcionalidad de cifrado principal y usar claves administradas por el cliente cuando sea necesario.</t>
+          <t>Utilice NSG y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la capa de aplicación de SAP, como subred de aplicaciones, subred de base de datos y subred web, etc.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3787,15 +3786,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3806,17 +3809,17 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación, por entorno y por región.</t>
+          <t>No se admite la implementación de ningún NVA entre la aplicación SAP y el servidor de base de datos SAP</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3833,15 +3836,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I65" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3852,17 +3859,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>No se admite la colocación de la capa de aplicación SAP y SAP DBMS en diferentes redes virtuales de Azure que no están emparejadas</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3877,16 +3884,12 @@
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
-      <c r="H66" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H66" s="16" t="n"/>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3897,23 +3900,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Personalice los roles de control de acceso basado en roles (RBAC) para sap en suscripciones radiales de Azure para evitar cambios accidentales relacionados con la red</t>
+          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de ubicación de proximidad de Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3922,17 +3925,13 @@
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
-      <c r="H67" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H67" s="16" t="n"/>
       <c r="I67" s="16" t="n"/>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3953,13 +3952,13 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Aísle las DMZ y las NVA del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>Personalización de roles de control de acceso basado en roles (RBAC) para SAP en suscripciones radiales de Azure para evitar cambios accidentales relacionados con la red</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,7 +3977,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3999,7 +3998,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Para el cifrado del servidor de base de datos SAP, utilice la tecnología de cifrado nativa SAP HANA. Si usa Base de datos SQL de Azure, use cifrado de datos transparente (TDE) ofrecido por el proveedor de DBMS para proteger los datos y los archivos de registro, y asegúrese de que las copias de seguridad también estén cifradas.</t>
+          <t>Aísle las DMZ y NVA del resto del estado de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4024,7 +4023,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4045,7 +4044,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>El cifrado de Almacenamiento de Azure está habilitado de forma predeterminada</t>
+          <t>Para el cifrado del servidor de base de datos SAP, utilice la tecnología de cifrado nativa de SAP HANA. Si usa Base de datos SQL de Azure, use el cifrado de datos transparente (TDE) ofrecido por el proveedor de DBMS para proteger los datos y los archivos de registro, y asegúrese de que las copias de seguridad también estén cifradas.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4070,7 +4069,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4091,7 +4090,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>El cifrado de Azure Storage está habilitado de forma predeterminada</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4116,7 +4115,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4162,7 +4161,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4173,17 +4172,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C73" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C73" s="22" t="inlineStr">
-        <is>
-          <t>No combine ASCS y clúster de base de datos en una sola o misma máquina virtual</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4200,7 +4199,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4208,7 +4207,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4219,23 +4218,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que la IP flotante esté habilitada en el equilibrador de carga</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4246,7 +4245,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4254,7 +4253,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4265,17 +4264,17 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de bases de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
+          <t>Se recomienda BLOQUEAR la implementación posterior a la implementación correcta de Azure Resources para protegerse contra cambios no autorizados.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4292,7 +4291,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4300,7 +4299,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4311,17 +4310,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Utilice un grupo de colocación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4338,7 +4337,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4346,7 +4345,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4357,17 +4356,17 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure no admite actualmente la combinación de ASCS y db HA en el mismo clúster de Linux Pacemaker; separarlos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
+          <t>En función de los requisitos existentes, los controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y rol RBAC de Azure son necesarios</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4384,7 +4383,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4392,7 +4391,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4403,17 +4402,17 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Usar una SKU de equilibrador de carga estándar delante de clústeres ASCS y DB</t>
+          <t>Cuando habilite Microsoft Defender para Cloud Standard para SAP, asegúrese de excluir los servidores de bases de datos SAP de cualquier directiva que instale la protección de extremos.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4430,7 +4429,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4438,7 +4437,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4449,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Ambas máquinas virtuales del par de alta disponibilidad deben implementarse en un conjunto de disponibilidad, o las zonas de disponibilidad deben tener el mismo tamaño y la misma configuración de almacenamiento</t>
+          <t>Delegue un rol personalizado de administrador de SAP con acceso justo a tiempo.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4476,7 +4475,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4484,7 +4483,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4495,17 +4494,17 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Se debe utilizar la tecnología de replicación de bases de datos nativas para sincronizar la base de datos en un par de alta disponibilidad.</t>
+          <t>cifrar datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4522,7 +4521,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4530,7 +4529,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4541,17 +4540,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Realice una recuperación puntual para sus bases de datos de producción en cualquier momento y en un marco de tiempo que cumpla con su RTO; La recuperación puntual generalmente incluye errores del operador que eliminan datos en la capa DBMS o a través de SAP, incidentalmente</t>
+          <t>Azure Active Directory (Azure AD) con SAML 2.0 también puede proporcionar SSO a una amplia gama de aplicaciones y plataformas de SAP, como SAP NetWeaver, SAP HANA y SAP Cloud Platform</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4568,7 +4567,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4576,7 +4575,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4587,34 +4586,42 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>El CIDR para la red virtual principal (red virtual) no debe entrar en conflicto ni superponerse con el CIDR de la red virtual del sitio de recuperación ante desastres</t>
+          <t>Asegúrese de reforzar el sistema operativo para erradicar las vulnerabilidades que podrían conducir a ataques a la base de datos SAP.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
-      <c r="E82" s="22" t="n"/>
+      <c r="E82" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
-      <c r="H82" s="16" t="n"/>
+      <c r="H82" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4625,34 +4632,42 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Utilice Site Recovery para replicar un servidor de aplicaciones en un sitio de RECUPERACIÓN ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de RECUPERACIÓN ante desastres. Cuando invoque DR, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de DR (por ejemplo, reemplace vip o SBD, ejecute corosync.conf y más).</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
-      <c r="E83" s="22" t="n"/>
+      <c r="E83" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
-      <c r="H83" s="16" t="n"/>
+      <c r="H83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4663,34 +4678,42 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>La replicación nativa de la base de datos se debe usar para sincronizar los datos con el sitio de recuperación ante desastres, en lugar de Azure Site Recovery</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
-      <c r="E84" s="22" t="n"/>
+      <c r="E84" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
-      <c r="H84" s="16" t="n"/>
+      <c r="H84" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4701,34 +4724,42 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C85" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
         </is>
       </c>
-      <c r="C85" s="22" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
       <c r="D85" s="22" t="n"/>
-      <c r="E85" s="22" t="n"/>
+      <c r="E85" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
-      <c r="H85" s="16" t="n"/>
+      <c r="H85" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf6-5de8e1309ccc</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4753,7 +4784,11 @@
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
-      <c r="E86" s="22" t="n"/>
+      <c r="E86" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4777,34 +4812,46 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Checlistas</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>No verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>c4919cb1-b3d1-4325-ae12-4ba34df685ed</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4815,34 +4862,46 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAVIA </t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>No verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>dce9bd3b-b0cd-4b3b-95eb-2ec14eeaa359</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4853,38 +4912,46 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Realizar solicitudes de cuota para SKU y zonas de VM correctas</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>No verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4905,7 +4972,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4927,14 +4994,14 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4955,7 +5022,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4977,14 +5044,14 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5005,7 +5072,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5027,14 +5094,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5055,7 +5122,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5072,7 +5139,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5084,7 +5151,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5105,7 +5172,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5122,7 +5189,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5134,7 +5201,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5155,7 +5222,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5177,14 +5244,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5205,7 +5272,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5222,19 +5289,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5250,12 +5317,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5272,19 +5339,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5305,7 +5372,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5322,7 +5389,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5334,7 +5401,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5355,7 +5422,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5372,19 +5439,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5405,7 +5472,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5422,19 +5489,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5455,7 +5522,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5477,14 +5544,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5505,7 +5572,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5534,7 +5601,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5555,7 +5622,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5572,7 +5639,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5584,7 +5651,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5605,7 +5672,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5622,7 +5689,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5634,7 +5701,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5655,13 +5722,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5672,19 +5739,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5700,18 +5767,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5722,19 +5789,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5750,12 +5817,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5772,19 +5839,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5800,12 +5867,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5822,19 +5889,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5855,7 +5922,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5872,7 +5939,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -5884,7 +5951,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5905,7 +5972,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5922,7 +5989,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -5934,7 +6001,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5955,7 +6022,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5977,14 +6044,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6005,7 +6072,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6027,14 +6094,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6055,7 +6122,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6077,14 +6144,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6100,12 +6167,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6125,12 +6192,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6151,7 +6222,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6168,19 +6239,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6201,7 +6267,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6218,7 +6284,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6230,7 +6296,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6246,12 +6312,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6268,19 +6334,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6301,7 +6367,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6318,15 +6384,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6347,7 +6417,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6364,14 +6434,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6392,7 +6462,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6409,7 +6479,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6417,7 +6487,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6428,17 +6498,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6455,19 +6525,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6488,7 +6554,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6503,13 +6569,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6530,7 +6604,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6545,21 +6619,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6580,7 +6646,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6609,7 +6675,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6630,7 +6696,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6647,19 +6713,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6680,7 +6746,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6697,19 +6763,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6730,7 +6796,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6747,19 +6813,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6780,7 +6846,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6797,19 +6863,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6830,7 +6896,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6847,14 +6913,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6875,13 +6946,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6892,14 +6963,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6920,7 +6991,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6937,14 +7008,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6965,7 +7036,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -6982,14 +7053,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7010,7 +7081,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7027,14 +7098,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7055,7 +7126,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7072,14 +7143,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7100,7 +7171,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7117,14 +7188,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7145,7 +7216,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7162,14 +7233,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7190,7 +7261,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7207,14 +7278,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7235,7 +7306,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7252,14 +7323,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7280,7 +7351,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7297,14 +7368,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7315,23 +7386,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7342,14 +7413,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7360,17 +7431,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7387,14 +7458,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7415,13 +7486,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7432,14 +7503,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7460,7 +7531,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7477,14 +7548,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7505,7 +7576,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7529,7 +7600,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7550,7 +7621,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7574,7 +7645,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7595,7 +7666,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7619,7 +7690,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7640,7 +7711,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7657,14 +7728,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7685,7 +7756,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7709,7 +7780,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7730,7 +7801,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7747,14 +7818,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7775,7 +7846,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7799,7 +7870,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7820,7 +7891,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -7837,14 +7908,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7860,18 +7931,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7882,14 +7953,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7905,12 +7976,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7927,14 +7998,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7955,13 +8026,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7979,7 +8050,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8000,7 +8071,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8017,14 +8088,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8045,7 +8116,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8069,7 +8140,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8090,13 +8161,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8114,7 +8185,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8135,7 +8206,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8159,7 +8230,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8180,13 +8251,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8204,7 +8275,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8225,7 +8296,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8249,7 +8320,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8270,7 +8341,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8294,7 +8365,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8315,7 +8386,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8339,7 +8410,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8355,12 +8426,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8377,14 +8448,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8400,12 +8471,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8422,14 +8493,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8450,7 +8521,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8467,14 +8538,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8495,7 +8566,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8512,14 +8583,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8540,7 +8611,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8557,14 +8628,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8585,7 +8656,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8602,14 +8673,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8630,7 +8701,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8647,14 +8718,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8675,7 +8746,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8699,7 +8770,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8720,7 +8791,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8737,14 +8808,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8753,360 +8824,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10664,7 +11455,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10748,7 +11539,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10804,14 +11595,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F90" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F87" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11003,7 +11824,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
